--- a/Analytics/SP1/Bookings_sp1.xlsx
+++ b/Analytics/SP1/Bookings_sp1.xlsx
@@ -82,64 +82,64 @@
     <t>20</t>
   </si>
   <si>
-    <t>Cadiz</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
   </si>
   <si>
     <t>Getafe</t>
   </si>
   <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
     <t>Vallecano</t>
   </si>
   <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
+    <t>Leganes</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -148,7 +148,7 @@
     <t>SUM("TBookings")</t>
   </si>
   <si>
-    <t>SUM("TBookings") / 38</t>
+    <t>SUM("TBookings") / 12</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>1305.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1285.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1145.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1120.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1085.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>1075.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>1075.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1055.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>980.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>965.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>960.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>950.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>945.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>940.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>935.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>905.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>890.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>880.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>820.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>815.0</v>
+        <v>170.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>1470.0</v>
+        <v>435.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>1315.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>1230.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>1115.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>1105.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>1065.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>1050.0</v>
+        <v>355.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>1030.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>1010.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>975.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>965.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>940.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>930.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>930.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>885.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>865.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>830.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>760.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>700.0</v>
+        <v>190.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>2755.0</v>
+        <v>795.0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.5</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>2375.0</v>
+        <v>770.0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.5</v>
+        <v>64.16666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>2315.0</v>
+        <v>740.0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.921052631578945</v>
+        <v>61.666666666666664</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>2260.0</v>
+        <v>735.0</v>
       </c>
       <c r="D5" t="n">
-        <v>59.473684210526315</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>2115.0</v>
+        <v>710.0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.6578947368421</v>
+        <v>59.166666666666664</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>2050.0</v>
+        <v>705.0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94736842105263</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>2045.0</v>
+        <v>675.0</v>
       </c>
       <c r="D8" t="n">
-        <v>53.81578947368421</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>2040.0</v>
+        <v>650.0</v>
       </c>
       <c r="D9" t="n">
-        <v>53.68421052631579</v>
+        <v>54.166666666666664</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>2030.0</v>
+        <v>640.0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.421052631578945</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>2015.0</v>
+        <v>615.0</v>
       </c>
       <c r="D11" t="n">
-        <v>53.026315789473685</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>2005.0</v>
+        <v>615.0</v>
       </c>
       <c r="D12" t="n">
-        <v>52.76315789473684</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>1940.0</v>
+        <v>585.0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.05263157894737</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>1910.0</v>
+        <v>580.0</v>
       </c>
       <c r="D14" t="n">
-        <v>50.26315789473684</v>
+        <v>48.333333333333336</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>1865.0</v>
+        <v>570.0</v>
       </c>
       <c r="D15" t="n">
-        <v>49.078947368421055</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>1865.0</v>
+        <v>525.0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.078947368421055</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>1810.0</v>
+        <v>510.0</v>
       </c>
       <c r="D17" t="n">
-        <v>47.63157894736842</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>1795.0</v>
+        <v>495.0</v>
       </c>
       <c r="D18" t="n">
-        <v>47.23684210526316</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>1760.0</v>
+        <v>430.0</v>
       </c>
       <c r="D19" t="n">
-        <v>46.31578947368421</v>
+        <v>35.833333333333336</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>1660.0</v>
+        <v>425.0</v>
       </c>
       <c r="D20" t="n">
-        <v>43.68421052631579</v>
+        <v>35.416666666666664</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>1650.0</v>
+        <v>280.0</v>
       </c>
       <c r="D21" t="n">
-        <v>43.421052631578945</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SP1/Bookings_sp1.xlsx
+++ b/Analytics/SP1/Bookings_sp1.xlsx
@@ -88,28 +88,40 @@
     <t>Las Palmas</t>
   </si>
   <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
     <t>Valencia</t>
   </si>
   <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Getafe</t>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
   </si>
   <si>
     <t>Alaves</t>
   </si>
   <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Sociedad</t>
+    <t>Ath Madrid</t>
   </si>
   <si>
     <t>Espanol</t>
@@ -118,28 +130,16 @@
     <t>Betis</t>
   </si>
   <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
+    <t>Vallecano</t>
   </si>
   <si>
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>Vallecano</t>
+    <t>Leganes</t>
   </si>
   <si>
     <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Leganes</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>485.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>410.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>410.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>360.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>350.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>350.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>350.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>340.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>330.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>305.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>300.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>290.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>285.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>280.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>280.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>235.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>230.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>205.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>200.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>170.0</v>
+        <v>220.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>435.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>430.0</v>
+        <v>590.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>420.0</v>
+        <v>570.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>390.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>385.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>365.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>355.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>340.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>325.0</v>
+        <v>505.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>325.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>290.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>285.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>280.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>270.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>240.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>230.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>220.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>200.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>190.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>190.0</v>
+        <v>260.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>795.0</v>
+        <v>1120.0</v>
       </c>
       <c r="D2" t="n">
-        <v>66.25</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>770.0</v>
+        <v>1065.0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.16666666666667</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>740.0</v>
+        <v>1060.0</v>
       </c>
       <c r="D4" t="n">
-        <v>61.666666666666664</v>
+        <v>88.33333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>735.0</v>
+        <v>1035.0</v>
       </c>
       <c r="D5" t="n">
-        <v>61.25</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>710.0</v>
+        <v>1030.0</v>
       </c>
       <c r="D6" t="n">
-        <v>59.166666666666664</v>
+        <v>85.83333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>705.0</v>
+        <v>1015.0</v>
       </c>
       <c r="D7" t="n">
-        <v>58.75</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>675.0</v>
+        <v>980.0</v>
       </c>
       <c r="D8" t="n">
-        <v>56.25</v>
+        <v>81.66666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>650.0</v>
+        <v>950.0</v>
       </c>
       <c r="D9" t="n">
-        <v>54.166666666666664</v>
+        <v>79.16666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -815,10 +815,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>640.0</v>
+        <v>930.0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.333333333333336</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="11">
@@ -829,10 +829,10 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>615.0</v>
+        <v>885.0</v>
       </c>
       <c r="D11" t="n">
-        <v>51.25</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>615.0</v>
+        <v>880.0</v>
       </c>
       <c r="D12" t="n">
-        <v>51.25</v>
+        <v>73.33333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>585.0</v>
+        <v>870.0</v>
       </c>
       <c r="D13" t="n">
-        <v>48.75</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>580.0</v>
+        <v>845.0</v>
       </c>
       <c r="D14" t="n">
-        <v>48.333333333333336</v>
+        <v>70.41666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>570.0</v>
+        <v>840.0</v>
       </c>
       <c r="D15" t="n">
-        <v>47.5</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="16">
@@ -899,10 +899,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>525.0</v>
+        <v>775.0</v>
       </c>
       <c r="D16" t="n">
-        <v>43.75</v>
+        <v>64.58333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>510.0</v>
+        <v>770.0</v>
       </c>
       <c r="D17" t="n">
-        <v>42.5</v>
+        <v>64.16666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>495.0</v>
+        <v>760.0</v>
       </c>
       <c r="D18" t="n">
-        <v>41.25</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>430.0</v>
+        <v>720.0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.833333333333336</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>425.0</v>
+        <v>695.0</v>
       </c>
       <c r="D20" t="n">
-        <v>35.416666666666664</v>
+        <v>57.916666666666664</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>280.0</v>
+        <v>665.0</v>
       </c>
       <c r="D21" t="n">
-        <v>23.333333333333332</v>
+        <v>55.416666666666664</v>
       </c>
     </row>
   </sheetData>
